--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC83-TORNILLERA 4.5 -6.5 TIT. # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC83-TORNILLERA 4.5 -6.5 TIT. # 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C69030B-53B1-46F9-B282-06192BCA3604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083784AA-6E8D-4C7D-997C-D5F26AA9FB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="308">
   <si>
     <t>T500950042</t>
   </si>
@@ -1063,6 +1063,9 @@
   </si>
   <si>
     <t>2000091528</t>
+  </si>
+  <si>
+    <t>2000091737</t>
   </si>
 </sst>
 </file>
@@ -2070,8 +2073,8 @@
   </sheetPr>
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2139,7 +2142,7 @@
       <c r="B7" s="18"/>
       <c r="C7" s="3">
         <f ca="1">NOW()</f>
-        <v>45346.476571643521</v>
+        <v>45401.672020138889</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -2412,8 +2415,8 @@
       <c r="A28" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="65">
-        <v>2000091737</v>
+      <c r="B28" s="65" t="s">
+        <v>307</v>
       </c>
       <c r="C28" s="50" t="s">
         <v>68</v>
@@ -4295,7 +4298,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B47 B28:B29 B85 B87 B89 B93" numberStoredAsText="1"/>
+    <ignoredError sqref="B47 B29 B85 B87 B89 B93" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
